--- a/Experiments_epoch5_roberta.xlsx
+++ b/Experiments_epoch5_roberta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D501"/>
+  <dimension ref="A1:D521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8455,6 +8455,326 @@
         </is>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>210</v>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0.9248984087197599</v>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>210</v>
+      </c>
+      <c r="B503" t="n">
+        <v>2</v>
+      </c>
+      <c r="C503" t="n">
+        <v>0.9258544836039871</v>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>210</v>
+      </c>
+      <c r="B504" t="n">
+        <v>3</v>
+      </c>
+      <c r="C504" t="n">
+        <v>0.9285598697800158</v>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>210</v>
+      </c>
+      <c r="B505" t="n">
+        <v>4</v>
+      </c>
+      <c r="C505" t="n">
+        <v>0.9257497725119372</v>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>210</v>
+      </c>
+      <c r="B506" t="n">
+        <v>5</v>
+      </c>
+      <c r="C506" t="n">
+        <v>0.9300290158397945</v>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>215</v>
+      </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
+      <c r="C507" t="n">
+        <v>0.9262253759595171</v>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>215</v>
+      </c>
+      <c r="B508" t="n">
+        <v>2</v>
+      </c>
+      <c r="C508" t="n">
+        <v>0.9243123464521412</v>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>215</v>
+      </c>
+      <c r="B509" t="n">
+        <v>3</v>
+      </c>
+      <c r="C509" t="n">
+        <v>0.9280832095096583</v>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>215</v>
+      </c>
+      <c r="B510" t="n">
+        <v>4</v>
+      </c>
+      <c r="C510" t="n">
+        <v>0.9185519079208482</v>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>215</v>
+      </c>
+      <c r="B511" t="n">
+        <v>5</v>
+      </c>
+      <c r="C511" t="n">
+        <v>0.9290021247679026</v>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>220</v>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+      <c r="C512" t="n">
+        <v>0.9289961356474477</v>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>220</v>
+      </c>
+      <c r="B513" t="n">
+        <v>2</v>
+      </c>
+      <c r="C513" t="n">
+        <v>0.9283840878961575</v>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>220</v>
+      </c>
+      <c r="B514" t="n">
+        <v>3</v>
+      </c>
+      <c r="C514" t="n">
+        <v>0.9294443365067029</v>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>220</v>
+      </c>
+      <c r="B515" t="n">
+        <v>4</v>
+      </c>
+      <c r="C515" t="n">
+        <v>0.9260481603715928</v>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>220</v>
+      </c>
+      <c r="B516" t="n">
+        <v>5</v>
+      </c>
+      <c r="C516" t="n">
+        <v>0.8996589981268911</v>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>225</v>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+      <c r="C517" t="n">
+        <v>0.9214068816122856</v>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>225</v>
+      </c>
+      <c r="B518" t="n">
+        <v>2</v>
+      </c>
+      <c r="C518" t="n">
+        <v>0.9198597448134801</v>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>225</v>
+      </c>
+      <c r="B519" t="n">
+        <v>3</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0.9289150494992462</v>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>225</v>
+      </c>
+      <c r="B520" t="n">
+        <v>4</v>
+      </c>
+      <c r="C520" t="n">
+        <v>0.9213415737398939</v>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>225</v>
+      </c>
+      <c r="B521" t="n">
+        <v>5</v>
+      </c>
+      <c r="C521" t="n">
+        <v>0.9291692619121769</v>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
